--- a/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30323</v>
+        <v>30793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73706</v>
+        <v>72951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1169115788941337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07435917486107002</v>
+        <v>0.07551251224730167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1807438482897029</v>
+        <v>0.1788932949565115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -762,19 +762,19 @@
         <v>71354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51631</v>
+        <v>51761</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92400</v>
+        <v>92524</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1968333949208778</v>
+        <v>0.1968333949208777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1424258020563355</v>
+        <v>0.1427850889877656</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2548873725811261</v>
+        <v>0.2552305472992416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -783,19 +783,19 @@
         <v>119030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90748</v>
+        <v>93851</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151136</v>
+        <v>152565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1545234520555539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1178074566131396</v>
+        <v>0.1218365248330847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1962025106123187</v>
+        <v>0.1980579529750663</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>360117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>334087</v>
+        <v>334842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>377470</v>
+        <v>377000</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8830884211058665</v>
+        <v>0.8830884211058663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8192561517102973</v>
+        <v>0.8211067050434887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.92564082513893</v>
+        <v>0.9244874877526983</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -833,19 +833,19 @@
         <v>291158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270112</v>
+        <v>269988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310881</v>
+        <v>310751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8031666050791222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7451126274188742</v>
+        <v>0.7447694527007586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8575741979436645</v>
+        <v>0.8572149110122345</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>321</v>
@@ -854,19 +854,19 @@
         <v>651275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619169</v>
+        <v>617740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>679557</v>
+        <v>676454</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8454765479444463</v>
+        <v>0.8454765479444462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8037974893876811</v>
+        <v>0.8019420470249338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8821925433868605</v>
+        <v>0.8781634751669152</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>88636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67738</v>
+        <v>65699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113336</v>
+        <v>111442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1858622276164236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1420411424266833</v>
+        <v>0.1377649228887223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2376570675139341</v>
+        <v>0.2336850473995062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -979,19 +979,19 @@
         <v>103976</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85371</v>
+        <v>85988</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124920</v>
+        <v>125342</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2072339798497465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1701530640329735</v>
+        <v>0.1713827652274788</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2489769742632619</v>
+        <v>0.2498179554343085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -1000,19 +1000,19 @@
         <v>192612</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>166174</v>
+        <v>165234</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>227039</v>
+        <v>225114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1968193647132314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.169803852601072</v>
+        <v>0.1688430310274596</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2319980229991756</v>
+        <v>0.2300311285509371</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>388254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363554</v>
+        <v>365448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409152</v>
+        <v>411191</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8141377723835764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7623429324860658</v>
+        <v>0.7663149526004936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8579588575733167</v>
+        <v>0.8622350771112776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>367</v>
@@ -1050,19 +1050,19 @@
         <v>397757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>376813</v>
+        <v>376391</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416362</v>
+        <v>415745</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7927660201502533</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7510230257367382</v>
+        <v>0.7501820445656913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8298469359670265</v>
+        <v>0.8286172347725212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>618</v>
@@ -1071,19 +1071,19 @@
         <v>786011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>751584</v>
+        <v>753509</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>812449</v>
+        <v>813389</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8031806352867686</v>
+        <v>0.8031806352867688</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7680019770008244</v>
+        <v>0.7699688714490629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8301961473989279</v>
+        <v>0.8311569689725402</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>108173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89033</v>
+        <v>91172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130630</v>
+        <v>129688</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1742367099350764</v>
+        <v>0.1742367099350763</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1434072667991827</v>
+        <v>0.1468532856883854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.210410170341863</v>
+        <v>0.2088922478965063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>256</v>
@@ -1196,19 +1196,19 @@
         <v>185384</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166889</v>
+        <v>166903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204771</v>
+        <v>204152</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2974740583345878</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2677968592747459</v>
+        <v>0.2678191514391391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3285843518397066</v>
+        <v>0.3275903973671361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>353</v>
@@ -1217,19 +1217,19 @@
         <v>293556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264452</v>
+        <v>265001</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>321503</v>
+        <v>322654</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2359720707720589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2125769501312225</v>
+        <v>0.2130184692372517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2584369269640872</v>
+        <v>0.2593621475598948</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>512664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>490207</v>
+        <v>491149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531804</v>
+        <v>529665</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8257632900649237</v>
+        <v>0.8257632900649238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7895898296581373</v>
+        <v>0.7911077521034936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8565927332008174</v>
+        <v>0.8531467143116147</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>592</v>
@@ -1267,19 +1267,19 @@
         <v>437809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>418422</v>
+        <v>419041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456304</v>
+        <v>456290</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7025259416654122</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6714156481602934</v>
+        <v>0.6724096026328639</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7322031407252542</v>
+        <v>0.7321808485608609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1041</v>
@@ -1288,19 +1288,19 @@
         <v>950473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>922526</v>
+        <v>921375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>979577</v>
+        <v>979028</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.764027929227941</v>
+        <v>0.7640279292279409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7415630730359127</v>
+        <v>0.740637852440105</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7874230498687774</v>
+        <v>0.7869815307627482</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>172356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148737</v>
+        <v>149740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198047</v>
+        <v>195799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2460063893752066</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2122948177487259</v>
+        <v>0.213725903159901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2826748639969023</v>
+        <v>0.279467046044563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>428</v>
@@ -1413,19 +1413,19 @@
         <v>274540</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>253958</v>
+        <v>254320</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>294239</v>
+        <v>294876</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3725676739994837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3446370275375801</v>
+        <v>0.3451280608361423</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3993000256799439</v>
+        <v>0.4001649703250537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>592</v>
@@ -1434,19 +1434,19 @@
         <v>446896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413868</v>
+        <v>415890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>477340</v>
+        <v>477812</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3108836463825929</v>
+        <v>0.310883646382593</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2879072705583741</v>
+        <v>0.2893139262390661</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3320619034272986</v>
+        <v>0.3323899615283272</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>528261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>502570</v>
+        <v>504818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>551880</v>
+        <v>550877</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7539936106247935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7173251360030979</v>
+        <v>0.7205329539554369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7877051822512743</v>
+        <v>0.7862740968400992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>713</v>
@@ -1484,19 +1484,19 @@
         <v>462346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>442647</v>
+        <v>442010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482928</v>
+        <v>482566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6274323260005163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6006999743200562</v>
+        <v>0.5998350296749463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6553629724624199</v>
+        <v>0.6548719391638577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1214</v>
@@ -1505,19 +1505,19 @@
         <v>990608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>960164</v>
+        <v>959692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1023636</v>
+        <v>1021614</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.689116353617407</v>
+        <v>0.6891163536174071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6679380965727014</v>
+        <v>0.6676100384716733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7120927294416259</v>
+        <v>0.710686073760934</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>178850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157983</v>
+        <v>159806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201192</v>
+        <v>200842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2935119956259275</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2592667528873395</v>
+        <v>0.2622590052374154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3301772382628068</v>
+        <v>0.3296031276839403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>437</v>
@@ -1630,19 +1630,19 @@
         <v>264703</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>244841</v>
+        <v>246323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>284287</v>
+        <v>281979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4347555337250862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4021341150408363</v>
+        <v>0.4045677127968517</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4669210642028245</v>
+        <v>0.4631301456526084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>633</v>
@@ -1651,19 +1651,19 @@
         <v>443554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417247</v>
+        <v>415867</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>471754</v>
+        <v>474285</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.364105297833998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3425108279660931</v>
+        <v>0.341377373420748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3872542784641321</v>
+        <v>0.3893323898812871</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>430496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>408154</v>
+        <v>408504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>451363</v>
+        <v>449540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7064880043740724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6698227617371935</v>
+        <v>0.6703968723160598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.740733247112661</v>
+        <v>0.7377409947625845</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>565</v>
@@ -1701,19 +1701,19 @@
         <v>344152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>324568</v>
+        <v>326876</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>364014</v>
+        <v>362532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5652444662749136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5330789357971759</v>
+        <v>0.5368698543473914</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5978658849591637</v>
+        <v>0.5954322872031484</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1032</v>
@@ -1722,19 +1722,19 @@
         <v>774648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>746448</v>
+        <v>743917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>800955</v>
+        <v>802335</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6358947021660021</v>
+        <v>0.635894702166002</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.612745721535868</v>
+        <v>0.6106676101187131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6574891720339068</v>
+        <v>0.6586226265792521</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>109141</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94017</v>
+        <v>94781</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>125685</v>
+        <v>124001</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2681069433973428</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2309539925248938</v>
+        <v>0.2328324257177391</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3087471049321353</v>
+        <v>0.3046119665873642</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>436</v>
@@ -1847,19 +1847,19 @@
         <v>230620</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216115</v>
+        <v>215071</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>246644</v>
+        <v>245081</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5251324913069947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4921039155397938</v>
+        <v>0.4897252316962032</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5616185393814807</v>
+        <v>0.5580591662441778</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>592</v>
@@ -1868,19 +1868,19 @@
         <v>339761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>318414</v>
+        <v>318562</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>362807</v>
+        <v>362379</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4014924377790134</v>
+        <v>0.4014924377790136</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3762660669540394</v>
+        <v>0.3764415227381167</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4287257541732708</v>
+        <v>0.428219298252045</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>297939</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281395</v>
+        <v>283079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>313063</v>
+        <v>312299</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7318930566026571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6912528950678646</v>
+        <v>0.6953880334126358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7690460074751061</v>
+        <v>0.7671675742822609</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>391</v>
@@ -1918,19 +1918,19 @@
         <v>208546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192522</v>
+        <v>194085</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223051</v>
+        <v>224095</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4748675086930054</v>
+        <v>0.4748675086930053</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4383814606185193</v>
+        <v>0.4419408337558223</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5078960844602061</v>
+        <v>0.5102747683037969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>805</v>
@@ -1939,19 +1939,19 @@
         <v>506485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>483439</v>
+        <v>483867</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>527832</v>
+        <v>527684</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5985075622209863</v>
+        <v>0.5985075622209864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5712742458267294</v>
+        <v>0.571780701747955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6237339330459607</v>
+        <v>0.6235584772618834</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>123203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109474</v>
+        <v>108850</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137201</v>
+        <v>137428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3971768416243389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3529151298299891</v>
+        <v>0.3509050745258634</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4423006231419427</v>
+        <v>0.4430345325254568</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>602</v>
@@ -2064,19 +2064,19 @@
         <v>309062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293857</v>
+        <v>292125</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>323075</v>
+        <v>322458</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6652092314317497</v>
+        <v>0.6652092314317498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6324817128589307</v>
+        <v>0.628754864675903</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6953701409483828</v>
+        <v>0.694041756759315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>792</v>
@@ -2085,19 +2085,19 @@
         <v>432266</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>410399</v>
+        <v>410757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>454271</v>
+        <v>452812</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.557900995260491</v>
+        <v>0.5579009952604909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5296790627036286</v>
+        <v>0.5301404362541127</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5863019034841294</v>
+        <v>0.5844188428843022</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>186995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172997</v>
+        <v>172770</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>200724</v>
+        <v>201348</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.602823158375661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5576993768580576</v>
+        <v>0.5569654674745433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6470848701700109</v>
+        <v>0.6490949254741372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>279</v>
@@ -2135,19 +2135,19 @@
         <v>155547</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>141534</v>
+        <v>142151</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>170752</v>
+        <v>172484</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3347907685682502</v>
+        <v>0.3347907685682501</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3046298590516173</v>
+        <v>0.305958243240685</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3675182871410692</v>
+        <v>0.3712451353240972</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>547</v>
@@ -2156,19 +2156,19 @@
         <v>342541</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>320536</v>
+        <v>321995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>364408</v>
+        <v>364050</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4420990047395091</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4136980965158706</v>
+        <v>0.4155811571156979</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4703209372963714</v>
+        <v>0.4698595637458874</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>828035</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>778995</v>
+        <v>774614</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>883192</v>
+        <v>888208</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2343875668078073</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2205059173152155</v>
+        <v>0.2192657142338669</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2500003067216884</v>
+        <v>0.251420363277917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2292</v>
@@ -2281,19 +2281,19 @@
         <v>1439640</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1388686</v>
+        <v>1387524</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1492286</v>
+        <v>1489093</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3852442282092558</v>
+        <v>0.3852442282092557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3716091974299672</v>
+        <v>0.3712981889071949</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.399332062798248</v>
+        <v>0.3984778390431452</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3165</v>
@@ -2302,19 +2302,19 @@
         <v>2267675</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2193879</v>
+        <v>2196826</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2343814</v>
+        <v>2351763</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3119345333659548</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3017833033591725</v>
+        <v>0.3021886901114751</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3224079061697446</v>
+        <v>0.323501419293903</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2704727</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2649570</v>
+        <v>2644554</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2753767</v>
+        <v>2758148</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.765612433192193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7499996932783118</v>
+        <v>0.7485796367220827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7794940826847847</v>
+        <v>0.7807342857661329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3075</v>
@@ -2352,19 +2352,19 @@
         <v>2297314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2244668</v>
+        <v>2247861</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2348268</v>
+        <v>2349430</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6147557717907444</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6006679372017519</v>
+        <v>0.6015221609568548</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6283908025700325</v>
+        <v>0.6287018110928051</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5578</v>
@@ -2373,19 +2373,19 @@
         <v>5002041</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4925902</v>
+        <v>4917953</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5075837</v>
+        <v>5072890</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6880654666340453</v>
+        <v>0.6880654666340452</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6775920938302553</v>
+        <v>0.676498580706097</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6982166966408274</v>
+        <v>0.6978113098885251</v>
       </c>
     </row>
     <row r="27">
